--- a/templates/Baogia_Template.xlsx
+++ b/templates/Baogia_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\quotation\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\2023\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4A039B-779D-4FD8-AE32-413AC1699181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6A9566-DEC9-41E8-A9A1-4AAF9CCB27A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0AB3CDA1-BAB6-47A6-A202-FD001BDE5FB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0AB3CDA1-BAB6-47A6-A202-FD001BDE5FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="102">
   <si>
     <t>No</t>
   </si>
@@ -1328,6 +1328,48 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="19" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1372,48 +1414,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1424,7 +1424,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="標準_FKS" xfId="2" xr:uid="{CEC0C1DA-16C7-4C6B-80D7-ECE140B87EF1}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1446,36 +1446,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF050000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF050000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCD5B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2179,16 +2149,16 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2234,7 +2204,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8">
+    <row r="5" spans="1:9" ht="30">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13.8" customHeight="1">
+    <row r="6" spans="1:9" ht="13.9" customHeight="1">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2382,25 +2352,12 @@
     <mergeCell ref="A8:G8"/>
   </mergeCells>
   <conditionalFormatting sqref="F6">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
-      <formula>IF($F$6&lt;1,1,0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
       <formula>IF($F$6&lt;1,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
-      <formula>IF(G6=$G$3,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
-      <formula>IF(G6=$G$3,1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(G6=$G$3,1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2415,28 +2372,28 @@
   </sheetPr>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:G15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="21" customWidth="1"/>
     <col min="5" max="5" width="12" style="21" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="21" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" style="21" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="21"/>
+    <col min="6" max="6" width="10.140625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="21" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
       <c r="C1" s="42"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="42"/>
@@ -2471,21 +2428,21 @@
       <c r="E5" s="43"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="77"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="23" t="s">
         <v>15</v>
       </c>
@@ -2495,8 +2452,8 @@
       <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
+      <c r="A8" s="91"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="23" t="s">
         <v>16</v>
       </c>
@@ -2506,8 +2463,8 @@
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="91"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="23" t="s">
         <v>17</v>
       </c>
@@ -2517,8 +2474,8 @@
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
@@ -2528,8 +2485,8 @@
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="23"/>
       <c r="D11" s="25"/>
       <c r="E11" s="24"/>
@@ -2537,8 +2494,8 @@
       <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="23" t="s">
         <v>19</v>
       </c>
@@ -2548,19 +2505,21 @@
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
+      <c r="A13" s="91"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="26"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4">
+    <row r="14" spans="1:7">
       <c r="B14" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="70"/>
+      <c r="C14" s="70" t="s">
+        <v>93</v>
+      </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
     </row>
@@ -2568,27 +2527,27 @@
       <c r="B15" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="79" t="e">
+      <c r="C15" s="93" t="str">
         <f>INDEX(Sheet1!$B$22:$B$32,MATCH(Quotation!$C$14,Sheet1!$A$22:$A$32,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+        <v>CÔNG TY TNHH THIẾT BỊ Y TẾ ETC</v>
+      </c>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
     </row>
     <row r="16" spans="1:7" ht="27.6" customHeight="1">
       <c r="B16" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="73" t="e">
+      <c r="C16" s="87" t="str">
         <f>INDEX(Sheet1!$C$22:$C$32,MATCH(Quotation!$C$14,Sheet1!$A$22:$A$32,0))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
+        <v>P. 702A Tầng 7, Tòa nhà Centre Point, 106 Nguyễn Văn Trỗi, P.8, Q. Phú Nhuận, HCM</v>
+      </c>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
     </row>
     <row r="17" spans="1:7" ht="6.75" customHeight="1" thickBot="1">
       <c r="A17" s="42"/>
@@ -2598,38 +2557,38 @@
       <c r="E17" s="42"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="80" t="s">
+      <c r="A18" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="82" t="s">
+      <c r="B18" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82" t="s">
+      <c r="C18" s="96"/>
+      <c r="D18" s="96" t="s">
         <v>25</v>
       </c>
       <c r="E18" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="82" t="s">
+      <c r="F18" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="84"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" thickBot="1">
-      <c r="A19" s="81"/>
-      <c r="B19" s="85" t="s">
+      <c r="G18" s="98"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A19" s="95"/>
+      <c r="B19" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="85"/>
-      <c r="D19" s="83"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="85" t="s">
+      <c r="F19" s="99" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A20" s="44"/>
@@ -2643,11 +2602,10 @@
       <c r="E20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="91">
-        <f>_xlfn.CEILING.MATH(Parts!I9/1000000)*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="91"/>
+      <c r="F20" s="76">
+        <v>26000000</v>
+      </c>
+      <c r="G20" s="76"/>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A21" s="49"/>
@@ -2657,8 +2615,8 @@
       <c r="C21" s="51"/>
       <c r="D21" s="52"/>
       <c r="E21" s="49"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
     </row>
     <row r="22" spans="1:7" ht="9" customHeight="1" thickBot="1">
       <c r="A22" s="53"/>
@@ -2666,53 +2624,53 @@
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
       <c r="E22" s="53"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1">
       <c r="A23" s="56"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
       <c r="D23" s="57"/>
       <c r="E23" s="56"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="88"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="97">
+      <c r="B24" s="80"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82">
         <f>F20</f>
-        <v>0</v>
-      </c>
-      <c r="G24" s="98"/>
+        <v>26000000</v>
+      </c>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="99" t="str">
+      <c r="A25" s="84" t="str">
         <f>Sheet2!C1</f>
-        <v>Bằng chữ: Không Thể Đọc Số</v>
-      </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="101"/>
+        <v>Bằng chữ: Hai Mươi Sáu Triệu Đồng</v>
+      </c>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1">
-      <c r="A26" s="88" t="str">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A26" s="73" t="str">
         <f>Sheet2!C2</f>
-        <v>In words: Out Of Range</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="90"/>
+        <v>In words: Twenty-Six Million Vietnam Dong)</v>
+      </c>
+      <c r="B26" s="74"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="75"/>
       <c r="F26" s="30"/>
       <c r="G26" s="31"/>
     </row>
@@ -2809,13 +2767,13 @@
     <row r="41" spans="1:4">
       <c r="D41" s="36"/>
     </row>
-    <row r="42" spans="1:4" ht="14.4">
+    <row r="42" spans="1:4">
       <c r="D42" s="37"/>
     </row>
-    <row r="43" spans="1:4" ht="14.4">
+    <row r="43" spans="1:4">
       <c r="A43" s="38"/>
     </row>
-    <row r="44" spans="1:4" ht="14.4">
+    <row r="44" spans="1:4">
       <c r="A44" s="38"/>
     </row>
     <row r="45" spans="1:4">
@@ -2826,13 +2784,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A25:E25"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="F23:G23"/>
     <mergeCell ref="A1:B1"/>
@@ -2847,6 +2798,13 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:B23 D23:G23">
     <cfRule type="expression" dxfId="1" priority="2">
@@ -2863,7 +2821,7 @@
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{64A4D2A3-FFEE-4F84-AE80-BF940D44E15A}">
           <x14:formula1>
             <xm:f>Sheet1!$A$22:$A$28</xm:f>
@@ -2884,10 +2842,10 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2913,17 +2871,17 @@
 CHOOSE(MID(TEXT(INT(A2),REPT(0,12)),12,1)+1,"mười","mười một","mười hai","mười ba","mười bốn","mười lăm","mười sáu","mười bảy","mười tám","mười chín"),"hai mươi","ba mươi","bốn mươi","năm mươi","sáu mươi","bảy mươi","tám mươi","chín mươi"),IF(VALUE(MID(TEXT(INT(A2),REPT(0,12)),11,1))&gt;1,
 CHOOSE(MID(TEXT(INT(A2),REPT(0,12)),12,1)+1,""," mốt"," hai"," ba"," bốn"," lăm"," sáu"," bảy"," tám"," chín"),IF(VALUE(MID(TEXT(INT(A2),REPT(0,12)),11,1))=0,
 CHOOSE(MID(TEXT(INT(A2),REPT(0,12)),12,1)+1,"","một","hai","ba","bốn","năm","sáu","bảy","tám","chín"),""))),"@@@","linh"),"###","ngàn"),"%%%",", "),"  "," ")&amp;" đồng"&amp;T(N("HocExcel.Online: Có thể sửa tùy chọn @@@ linh, ### ngàn, %%% dấu phẩy, và bỏ đồng"))))</f>
-        <v>Không thể đọc số</v>
+        <v>hai mươi sáu triệu, đồng</v>
       </c>
       <c r="C1" t="str">
         <f>"Bằng chữ: "&amp;PROPER(SUBSTITUTE(B1,",",""))</f>
-        <v>Bằng chữ: Không Thể Đọc Số</v>
+        <v>Bằng chữ: Hai Mươi Sáu Triệu Đồng</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="58">
         <f>Quotation!F20</f>
-        <v>0</v>
+        <v>26000000</v>
       </c>
       <c r="B2" t="str">
         <f>TRIM(IF(OR(LEN(FLOOR(A2,1))&gt;=13,FLOOR(A2,1)&lt;=0)+N(" HocExcel.Online"),"Out of range",PROPER(SUBSTITUTE(CONCATENATE(
@@ -2952,11 +2910,11 @@
 CHOOSE(MID(TEXT(INT(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),2)),REPT(0,12)),12,1)+1,"ten","eleven","twelve","thirteen","fourteen","fifteen","sixteen","seventeen","eighteen","nineteen")&amp;" Cents","twenty","thirty","forty","fifty","sixty","seventy","eighty","ninety"),IF(VALUE(MID(TEXT(INT(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),2)),REPT(0,12)),11,1))&gt;1,
 CHOOSE(MID(TEXT(INT(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),2)),REPT(0,12)),12,1)+1,"","-one","-two","-three","-four","-five","-six","-seven","-eight","-nine")&amp;" Cents",IF(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),2)="01","one cent",IF(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),1)="0",
 CHOOSE(MID(TEXT(INT(LEFT(TRIM(MID(SUBSTITUTE(A2,".",REPT(" ",255)),255,200)),2)),REPT(0,12)),12,1)+1+N("HocExcel.Online"),"","one","two","three","four","five","six","seven","eight","nine")&amp;" Cents",""))))))))</f>
-        <v>Out of range</v>
+        <v>Twenty-Six Million Dollars and No Cents</v>
       </c>
       <c r="C2" t="str">
         <f>"In words: "&amp;PROPER(SUBSTITUTE(B2,"Dollars and No Cents","Vietnam Dong)"))</f>
-        <v>In words: Out Of Range</v>
+        <v>In words: Twenty-Six Million Vietnam Dong)</v>
       </c>
     </row>
   </sheetData>
@@ -2973,25 +2931,25 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="59"/>
-    <col min="6" max="6" width="8.88671875" style="60"/>
-    <col min="7" max="7" width="22.5546875" style="60" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="59"/>
+    <col min="6" max="6" width="8.85546875" style="60"/>
+    <col min="7" max="7" width="22.5703125" style="60" customWidth="1"/>
     <col min="8" max="8" width="21" style="60" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="58">
         <f>Quotation!F20</f>
-        <v>0</v>
+        <v>26000000</v>
       </c>
       <c r="B1">
         <f>LEN(A1)</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>48</v>
@@ -3050,25 +3008,25 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" s="59" t="str">
+      <c r="E3" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>2</v>
       </c>
       <c r="F3" s="60" t="str">
         <f>IF(E3="","",VLOOKUP(E3,$N$1:$P$12,2,0))</f>
-        <v/>
+        <v>hai</v>
       </c>
       <c r="G3" s="60" t="str">
         <f>IF(E3="","",IF(E3=0,"linh",IF(E3=1,"mười",F3&amp;" mươi")))</f>
-        <v/>
+        <v>hai mươi</v>
       </c>
       <c r="I3" t="str">
         <f>IF(E3="","",VLOOKUP(E3,$N$1:$P$12,3,0))</f>
-        <v/>
+        <v>two</v>
       </c>
       <c r="J3" t="str">
         <f>IF(E3="","",IF(E3=1,VLOOKUP(E4,$N$3:$R$12,4,0),VLOOKUP(E3,$N$3:$R$12,5,0)))</f>
-        <v/>
+        <v>twenty</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3086,37 +3044,37 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1">
       <c r="D4">
         <v>7</v>
       </c>
-      <c r="E4" s="59" t="str">
+      <c r="E4" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="F4" s="60" t="str">
         <f>IF(AND(E3&lt;&gt;"",E4=5),"lăm",IF(E4="","",VLOOKUP(E4,$N$1:$P$12,2,0)))</f>
-        <v/>
+        <v>sáu</v>
       </c>
       <c r="G4" s="60" t="str">
         <f>IF(SUM(E3:E4)=0,"triệu",IF(E4=0,G3&amp;" triệu ",G3&amp;" "&amp;F4&amp;" triệu "))</f>
-        <v>triệu</v>
+        <v xml:space="preserve">hai mươi sáu triệu </v>
       </c>
       <c r="H4" s="61" t="str">
         <f>IF(E2=0,G4,G2&amp;" "&amp;G4)</f>
-        <v xml:space="preserve"> triệu</v>
-      </c>
-      <c r="I4" t="e">
+        <v xml:space="preserve"> hai mươi sáu triệu </v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" ref="I4:I10" si="1">VLOOKUP(E4,$N$1:$P$12,3,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J4" t="e">
+        <v>six</v>
+      </c>
+      <c r="J4" t="str">
         <f>IF(E4=0,LEFT(J3,LEN(J3))&amp;" million ",IF(E3="",I4&amp;" million ",IF(E3=1,J3&amp;" million ",J3&amp;"-"&amp;I4&amp;" million ")))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K4" t="e">
+        <v xml:space="preserve">twenty-six million </v>
+      </c>
+      <c r="K4" t="str">
         <f>IF(E2=0,J4,J2&amp;" "&amp;J4)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve"> twenty-six million </v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -3134,30 +3092,30 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1">
+    <row r="5" spans="1:18" ht="15.75" thickBot="1">
       <c r="D5">
         <v>6</v>
       </c>
-      <c r="E5" s="59" t="str">
+      <c r="E5" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F5" s="60" t="str">
         <f t="shared" ref="F5:F10" si="2">IF(E5="","",VLOOKUP(E5,$N$1:$P$12,2,0))</f>
-        <v/>
+        <v>không</v>
       </c>
       <c r="G5" s="62" t="str">
         <f>IF(E5=0,"",F5&amp;" trăm")</f>
-        <v xml:space="preserve"> trăm</v>
+        <v/>
       </c>
       <c r="H5" s="61"/>
-      <c r="I5" s="63" t="e">
+      <c r="I5" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J5" s="64" t="e">
+        <v>zero</v>
+      </c>
+      <c r="J5" s="64" t="str">
         <f>IF(E5=0,"",I5&amp;" hundred")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="N5">
         <v>3</v>
@@ -3175,30 +3133,30 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1">
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="E6" s="59" t="str">
+      <c r="E6" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F6" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>không</v>
       </c>
       <c r="G6" s="60" t="str">
         <f>IF(E6=0,"",IF(E6=1,"mười",F6&amp;" mươi"))</f>
-        <v xml:space="preserve"> mươi</v>
+        <v/>
       </c>
       <c r="H6" s="61"/>
-      <c r="I6" t="e">
+      <c r="I6" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J6" s="65" t="e">
+        <v>zero</v>
+      </c>
+      <c r="J6" s="65" t="str">
         <f>IF(E6=1,VLOOKUP(E7,$N$3:$R$12,4,0),VLOOKUP(E6,$N$3:$R$12,5,0))</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="N6">
         <v>4</v>
@@ -3216,33 +3174,33 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1">
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" s="59" t="str">
+      <c r="E7" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F7" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>không</v>
       </c>
       <c r="G7" s="61" t="str">
         <f>IF(E7=0,G6&amp;" ngàn ",G6&amp;" "&amp;F7&amp;" ngàn ")</f>
-        <v xml:space="preserve"> mươi  ngàn </v>
+        <v xml:space="preserve"> ngàn </v>
       </c>
       <c r="H7" s="61" t="str">
         <f>IF(SUM(E5:E7)=0,"",IF(E5=0,G7,G5&amp;" "&amp;G7))</f>
         <v/>
       </c>
-      <c r="I7" s="66" t="e">
+      <c r="I7" s="66" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J7" s="67" t="e">
+        <v>zero</v>
+      </c>
+      <c r="J7" s="67" t="str">
         <f>IF(E7=0,J6&amp;" thousand ",IF(E6=1,J6&amp;" thousand ",J6&amp;"-"&amp;I7&amp;" thousand "))</f>
-        <v>#N/A</v>
+        <v xml:space="preserve"> thousand </v>
       </c>
       <c r="K7" t="str">
         <f>IF(SUM(E5:E7)=0,"",IF(E5=0,J7,J5&amp;" "&amp;J7))</f>
@@ -3264,30 +3222,30 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1">
+    <row r="8" spans="1:18" ht="15.75" thickBot="1">
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="59" t="str">
+      <c r="E8" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F8" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>không</v>
       </c>
       <c r="G8" s="62" t="str">
         <f>IF(E8=0,"",F8&amp;" trăm")</f>
-        <v xml:space="preserve"> trăm</v>
+        <v/>
       </c>
       <c r="H8" s="61"/>
-      <c r="I8" s="63" t="e">
+      <c r="I8" s="63" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="64" t="e">
+        <v>zero</v>
+      </c>
+      <c r="J8" s="64" t="str">
         <f>IF(E8=0,"",I8&amp;" hundred")</f>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="N8">
         <v>6</v>
@@ -3305,30 +3263,30 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1">
+    <row r="9" spans="1:18" ht="15.75" thickBot="1">
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="59" t="str">
+      <c r="E9" s="59">
         <f t="shared" si="0"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F9" s="60" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>không</v>
       </c>
       <c r="G9" s="60" t="str">
         <f>IF(E9=1,"mười",IF(E9=0,"lẻ",F9&amp;" mươi"))</f>
-        <v xml:space="preserve"> mươi</v>
+        <v>lẻ</v>
       </c>
       <c r="H9" s="61"/>
-      <c r="I9" t="e">
+      <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="65" t="e">
+        <v>zero</v>
+      </c>
+      <c r="J9" s="65" t="str">
         <f>IF(E9=0,"and ",IF(E9=1,VLOOKUP(E10,$N$3:$R$12,4,0),VLOOKUP(E9,$N$3:$R$12,5,0)))</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">and </v>
       </c>
       <c r="N9">
         <v>7</v>
@@ -3346,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1">
+    <row r="10" spans="1:18" ht="15.75" thickBot="1">
       <c r="D10">
         <v>1</v>
       </c>
@@ -3360,7 +3318,7 @@
       </c>
       <c r="G10" s="61" t="str">
         <f>IF(E10=0,G9,G9&amp;" "&amp;F10)</f>
-        <v xml:space="preserve"> mươi</v>
+        <v>lẻ</v>
       </c>
       <c r="H10" s="61" t="str">
         <f>IF(SUM(E8:E10)=0,"",IF(E8=0,G10,G8&amp;" "&amp;G10))</f>
@@ -3370,9 +3328,9 @@
         <f t="shared" si="1"/>
         <v>zero</v>
       </c>
-      <c r="J10" s="67" t="e">
+      <c r="J10" s="67" t="str">
         <f>IF(E9=1,J9,IF(E10=0,J9,J9&amp;I10))</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">and </v>
       </c>
       <c r="K10" t="str">
         <f>IF(SUM(E8:E10)=0,"",IF(E8=0,J10,J8&amp;" "&amp;J10))</f>
@@ -3436,7 +3394,7 @@
       </c>
       <c r="B14" s="102" t="str">
         <f>TRIM(PROPER(H4&amp;H7&amp;H10&amp;" đồng"))</f>
-        <v>Triệu Đồng</v>
+        <v>Hai Mươi Sáu Triệu Đồng</v>
       </c>
       <c r="C14" s="102"/>
       <c r="D14" s="102"/>
@@ -3451,9 +3409,9 @@
       <c r="A15" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="68" t="e">
+      <c r="B15" s="68" t="str">
         <f>TRIM(PROPER(K4&amp;K7&amp;K10&amp;"Vietnam Dong)"))</f>
-        <v>#N/A</v>
+        <v>Twenty-Six Million Vietnam Dong)</v>
       </c>
       <c r="C15" s="68"/>
       <c r="D15" s="68"/>
@@ -3467,13 +3425,13 @@
     <row r="16" spans="1:18">
       <c r="B16" t="str">
         <f>LEFT(B14,1)</f>
-        <v>T</v>
+        <v>H</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="str">
         <f>TRIM(PROPER(B14))</f>
-        <v>Triệu Đồng</v>
+        <v>Hai Mươi Sáu Triệu Đồng</v>
       </c>
     </row>
     <row r="22" spans="1:3">
